--- a/agents/file/errors.xlsx
+++ b/agents/file/errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,57 +444,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ААС 5012365495</t>
+          <t>ААС</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Дата подписания - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ААС 5012365496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Полис уже есть в базе</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ААС 5012365497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Полис уже есть в базе</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ХХХ0012365495</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
